--- a/tests/test book.xlsx
+++ b/tests/test book.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10216"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/xlwings/tests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1213B10-88C3-3840-BADB-D283ADEB5F43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="5445"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="29920" windowHeight="18740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="shape" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -58,8 +65,76 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FCC2B6-BC59-3349-9C7A-A8976F9CBAAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="1320800"/>
+          <a:ext cx="5283200" cy="2197100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -105,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -138,9 +213,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,6 +265,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -348,37 +457,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478AD1D5-1A43-D64D-818B-D61C1BBAFB3B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>